--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/所有者权益合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>46.18501</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78.52345</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.94333</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01899</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.03708</v>
-      </c>
-      <c r="G2" t="n">
-        <v>84.53666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.83166</v>
-      </c>
-      <c r="I2" t="n">
-        <v>43.80287</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.91947</v>
-      </c>
-      <c r="K2" t="n">
-        <v>59.27844</v>
-      </c>
-      <c r="L2" t="n">
-        <v>27.45325</v>
-      </c>
-      <c r="M2" t="n">
-        <v>13.86482</v>
-      </c>
-      <c r="N2" t="n">
-        <v>76.90834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>38.84537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.19791</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>72.28782</v>
-      </c>
-      <c r="R2" t="n">
-        <v>31.26774</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>12.67575</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.19293</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.24055</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.00347</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14.76184</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>46.34495</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>92.49982</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>30.33789</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>17.23812</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.75342</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1664.99</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>117.10092</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.36213</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>34.57438</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>87.81001000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>134.58204</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.48607</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34.69877</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>71.82433</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34.92545</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>279.22182</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4.45787</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>70.2734</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98.61251</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.7802</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07616000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>47.15059</v>
-      </c>
-      <c r="G3" t="n">
-        <v>148.93694</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.38932</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66.96325</v>
-      </c>
-      <c r="J3" t="n">
-        <v>23.57132</v>
-      </c>
-      <c r="K3" t="n">
-        <v>91.83822000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33.41651</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27.59716</v>
-      </c>
-      <c r="N3" t="n">
-        <v>139.68445</v>
-      </c>
-      <c r="O3" t="n">
-        <v>63.11233</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11.44159</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>107.25287</v>
-      </c>
-      <c r="R3" t="n">
-        <v>57.57653</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01014</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22.04717</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.37016</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.39052</v>
-      </c>
-      <c r="W3" t="n">
-        <v>17.63838</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19.14514</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>68.34544</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>162.96563</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>53.65106</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21.34714</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.05042</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2374.59</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>231.97622</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.37734</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>62.957</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>137.64113</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>212.05699</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.72009</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>57.47261</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>122.80736</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>48.67753</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>83.64851</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.612209999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114.67485</v>
-      </c>
-      <c r="C4" t="n">
-        <v>146.14076</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.16886</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.27699</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62.41085</v>
-      </c>
-      <c r="G4" t="n">
-        <v>230.34666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.74365</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94.77386</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.01406</v>
-      </c>
-      <c r="K4" t="n">
-        <v>142.21312</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42.02181</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36.71412</v>
-      </c>
-      <c r="N4" t="n">
-        <v>209.19972</v>
-      </c>
-      <c r="O4" t="n">
-        <v>86.83508</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15.38075</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>142.63926</v>
-      </c>
-      <c r="R4" t="n">
-        <v>74.25624000000001</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>31.23034</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.07658</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.04337</v>
-      </c>
-      <c r="W4" t="n">
-        <v>30.95471</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17.05263</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>100.18797</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>236.09174</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>75.23509</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>59.75641</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>3567.35</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>378.14857</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.9785</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>92.61963</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>205.49231</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>298.80534</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.36578</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>89.01676</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>192.92076</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>67.34547999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>153.85295</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>16.36764</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
